--- a/biology/Botanique/Delorina/Delorina.xlsx
+++ b/biology/Botanique/Delorina/Delorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delorina est le nom d'un cultivar de pommes mieux connu sous son nom commercial Harmonie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pomme de forme tronconique vert-jaune striée et lavée de rouge sur la moitié aux trois quarts de sa hauteur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pomme de forme tronconique vert-jaune striée et lavée de rouge sur la moitié aux trois quarts de sa hauteur.
 Chair ferme, croquante, juteuse et sucrée.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1995, Création Georges Delbard, disponible dans de nombreuses jardineries.
 </t>
@@ -574,7 +590,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Delorina résulte du croisement Blushing Golden grifer x Quérina® florina.
 </t>
@@ -605,9 +623,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Groupe de pollinisation: D.Ses pollinisateurs sont Malus Golden Gem, Régali, Cybèle, Delbard Jubilé, Delbartardive, Delbardivine[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de pollinisation: D.Ses pollinisateurs sont Malus Golden Gem, Régali, Cybèle, Delbard Jubilé, Delbartardive, Delbardivine,.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété possède une résistance génétique à la tavelure, mais elle est sensible à l'oïdium.
 Elle est donc appropriée aux petits jardins familiaux où les traitements ne sont pas systématiques. 
@@ -668,11 +690,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De vigueur forte avec un port étalé, l'arbre est de mise à fruits rapide avec une forte productivité mais un calibre insuffisant en l'absence d'éclaircissage[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De vigueur forte avec un port étalé, l'arbre est de mise à fruits rapide avec une forte productivité mais un calibre insuffisant en l'absence d'éclaircissage.
 Cette variété est demi-tardive avec maturité acquise dans la seconde moitié d'octobre.
-Les pommes se conservent jusque mi-février[1].
+Les pommes se conservent jusque mi-février.
 </t>
         </is>
       </c>
